--- a/biology/Écologie/George_Evelyn_Hutchinson/George_Evelyn_Hutchinson.xlsx
+++ b/biology/Écologie/George_Evelyn_Hutchinson/George_Evelyn_Hutchinson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Evelyn Hutchinson (1903-1991) est un zoologue anglo-américain célèbre pour ses études pionnières en limnologie et certains essais marquants de l'écologie moderne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une formation à la Gresham's School du Norfolk (Royaume-Uni), c'est à l'université de Yale (États-Unis) qu'il s'établit en tant que professeur. Il supervise alors nombre d'écologues influents tels que Robert MacArthur ou Lawrence B. Slobodkin (en), avec lesquels il participe à la fondation de l'écologie théorique moderne.
-En 1957, il propose une définition formelle à la notion de niche écologique[3] (« un hypervolume à n-dimensions, [...] chacune correspondant à un état de l'environnement qui permettrait à une espèce SI d'exister indéfiniment[4]. »).
+En 1957, il propose une définition formelle à la notion de niche écologique (« un hypervolume à n-dimensions, [...] chacune correspondant à un état de l'environnement qui permettrait à une espèce SI d'exister indéfiniment. »).
 Il reçoit à titre posthume la National Medal of Science en 1991.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Clear Mirror (1936)
 The Itinerant Ivory Tower (1953)
